--- a/phishingemails.xlsx
+++ b/phishingemails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\School\W2023\CSI4900\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15523B2C-DC7B-4EA0-9CB5-A60358A60F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0504F6B-42D7-468F-ADB5-7CD697A9CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
   </bookViews>
@@ -6489,12 +6489,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6824,7 +6827,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6870,7 +6873,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6887,10 +6890,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2">
@@ -6918,7 +6921,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
@@ -6952,7 +6955,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2">
@@ -6980,7 +6983,7 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
@@ -7010,11 +7013,11 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2">
@@ -7026,16 +7029,12 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2">
@@ -7044,19 +7043,15 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2">
@@ -7076,10 +7071,10 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="2">
@@ -7099,10 +7094,10 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2">
@@ -7123,7 +7118,7 @@
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="2">
@@ -7146,7 +7141,7 @@
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="2">
@@ -7167,7 +7162,7 @@
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="2">
@@ -7188,7 +7183,7 @@
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="2">
@@ -7209,7 +7204,7 @@
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="2">
@@ -7230,7 +7225,7 @@
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="2">
@@ -7251,7 +7246,7 @@
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="2">
@@ -7272,7 +7267,7 @@
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="2">
@@ -7293,7 +7288,7 @@
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="2">
@@ -7314,7 +7309,7 @@
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="2">
@@ -7354,7 +7349,7 @@
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="2">

--- a/phishingemails.xlsx
+++ b/phishingemails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\School\W2023\CSI4900\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0504F6B-42D7-468F-ADB5-7CD697A9CD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E779FBC-CA61-42F9-9A88-211FAD8EF1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96370636-CC1B-494D-98F6-3F3606D8142E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6489,17 +6489,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6827,7 +6826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6844,548 +6843,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
+      <c r="I22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
+      <c r="I23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
+      <c r="I24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
+      <c r="I27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
